--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black-browed Albatross_Islas Diego Ramirez.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black-browed Albatross_Islas Diego Ramirez.xlsx
@@ -2886,13 +2886,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25D935D8-C370-4BA7-A2D1-D87F4AB5CBDF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{887369FB-9361-4090-B90F-A3980835FA11}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1275E7E-1266-4A9D-8F02-CACABB8771A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB7A57F-D6B2-4DE9-9B37-A11DCABDD24D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57E6E68-48DD-4F3E-99F1-182988D0B791}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D7F615-FF0E-49D0-A4D3-BD73AF53859D}"/>
 </file>